--- a/结果/DT分类/样本熵/DT_BE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_BE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9F90E-2796-405B-9F32-4F244207C8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DBF71-9B57-472C-9C51-470F87AB7E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8892" yWindow="2652" windowWidth="19668" windowHeight="9792" activeTab="4" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="BE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="BE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="BE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +65,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -92,8 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,6 +605,20 @@
       </c>
       <c r="C36">
         <v>92.771100000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>93.75</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>93.195873333333324</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>94.321146666666664</v>
       </c>
     </row>
   </sheetData>
@@ -603,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B622E84-8A23-4EB2-BB0F-03FFD8205A19}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,6 +812,20 @@
       </c>
       <c r="C36">
         <v>93.421099999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>88.25</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>86.955513333333315</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>89.507346666666663</v>
       </c>
     </row>
   </sheetData>
@@ -795,10 +836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFAFE01-F498-4A96-8F92-7AC3460B33C1}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,6 +1018,20 @@
       </c>
       <c r="C36">
         <v>90.588200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>87.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>85.763826666666674</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>89.310559999999981</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9884C82-1907-45DC-A578-31AAB72CA551}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1169,6 +1224,20 @@
       </c>
       <c r="C36">
         <v>55.263199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>60.5</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>60.055906666666651</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>61.03758666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA6347-AADD-4BEA-9A4D-D165A2BAEB27}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1367,4 +1436,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5873A74-AA0B-455A-BFF3-4EE532A6A1D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/DT分类/样本熵/DT_BE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_BE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DBF71-9B57-472C-9C51-470F87AB7E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DAA5C8-4E2A-48C5-A749-23EA068BF82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="8400" yWindow="1272" windowWidth="19668" windowHeight="9792" tabRatio="724" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_sampen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,7 +438,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +645,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1440,15 +1452,193 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5873A74-AA0B-455A-BFF3-4EE532A6A1D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98.125</v>
+      </c>
+      <c r="B2">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C2">
+        <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>97.5</v>
+      </c>
+      <c r="B4">
+        <v>97.590400000000002</v>
+      </c>
+      <c r="C4">
+        <v>97.402600000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99.375</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>98.876400000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>97.5</v>
+      </c>
+      <c r="B8">
+        <v>95.945899999999995</v>
+      </c>
+      <c r="C8">
+        <v>98.837199999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.75</v>
+      </c>
+      <c r="B10">
+        <v>98.9011</v>
+      </c>
+      <c r="C10">
+        <v>98.550700000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.75</v>
+      </c>
+      <c r="B15">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.75</v>
+      </c>
+      <c r="B17">
+        <v>98.795199999999994</v>
+      </c>
+      <c r="C17">
+        <v>98.701300000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>98.125</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>96.385499999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>96.25</v>
+      </c>
+      <c r="B21">
+        <v>98.550700000000006</v>
+      </c>
+      <c r="C21">
+        <v>94.505499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>97.5</v>
+      </c>
+      <c r="B23">
+        <v>96.296300000000002</v>
+      </c>
+      <c r="C23">
+        <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>97.5</v>
+      </c>
+      <c r="B28">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C28">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.75</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>97.674400000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.75</v>
+      </c>
+      <c r="B32">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C32">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>96.875</v>
+      </c>
+      <c r="B34">
+        <v>98.7179</v>
+      </c>
+      <c r="C34">
+        <v>95.122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.75</v>
+      </c>
+      <c r="B36">
+        <v>97.619</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/DT分类/样本熵/DT_BE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_BE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DAA5C8-4E2A-48C5-A749-23EA068BF82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC888FC-C899-4E2E-83B9-A60DADB29CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1272" windowWidth="19668" windowHeight="9792" tabRatio="724" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="7896" yWindow="396" windowWidth="13620" windowHeight="12360" tabRatio="724" firstSheet="3" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_sampen" sheetId="1" r:id="rId1"/>
@@ -1452,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5873A74-AA0B-455A-BFF3-4EE532A6A1D5}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1636,6 +1636,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>98.083333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.189813333333348</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.063986666666693</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
